--- a/三菱コンペ/outputs/test.xlsx
+++ b/三菱コンペ/outputs/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satoshiido/Documents/coding_general/signate/三菱コンペ/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238CE0EF-26F3-B14E-9ED1-EF638B803FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34613C5-6E01-D14C-95A9-F9182E70001E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="-19560" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-340" yWindow="1680" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -922,6 +922,8 @@
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -961,10 +963,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>42360</v>
+        <v>42255</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -973,85 +975,85 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="L2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>42459</v>
+        <v>42264</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="L3">
-        <v>14.9</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>42395</v>
+        <v>42256</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>156.5</v>
       </c>
       <c r="L4">
-        <v>3.8</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2">
-        <v>42255</v>
+        <v>42507</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1060,175 +1062,175 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="F5">
-        <v>420</v>
+        <v>515</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="K5">
-        <v>65.5</v>
+        <v>31.5</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2">
-        <v>42271</v>
+        <v>42467</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="F6">
-        <v>420</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
+        <v>532</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="L6">
-        <v>20.399999999999999</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2">
-        <v>42346</v>
+        <v>42387</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F7">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2">
-        <v>42347</v>
+        <v>42349</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L8">
-        <v>7.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>42389</v>
+        <v>42310</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F9">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L9">
-        <v>4.0999999999999996</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2">
-        <v>42396</v>
+        <v>42394</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="F10">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2">
-        <v>42404</v>
+        <v>42446</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1237,56 +1239,59 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="F11">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.0999999999999996</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2">
-        <v>42409</v>
+        <v>42397</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>420</v>
+        <v>428</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
-        <v>42423</v>
+        <v>42339</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1295,85 +1300,88 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.7</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2">
-        <v>42499</v>
+        <v>42444</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="F14">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>19</v>
+        <v>0.5</v>
       </c>
       <c r="L14">
-        <v>18.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42410</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15">
+        <v>436</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>42262</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15">
-        <v>421</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>22.3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
-        <v>42353</v>
+        <v>42388</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1382,97 +1390,97 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F16">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.5</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2">
-        <v>42354</v>
+        <v>42426</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>87</v>
+      <c r="E17" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F17">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2">
-        <v>42359</v>
+        <v>42432</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F18">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2">
-        <v>42394</v>
+        <v>42383</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F19">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="J19" t="s">
         <v>51</v>
@@ -1481,143 +1489,143 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2">
-        <v>42437</v>
+        <v>42430</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F20">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
-        <v>42310</v>
+        <v>42312</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>12.7</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>42390</v>
+        <v>42335</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F22">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.4</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2">
-        <v>42440</v>
+        <v>42502</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="F23">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.5999999999999996</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2">
-        <v>42446</v>
+        <v>42314</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24">
-        <v>425</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
       </c>
       <c r="J24" t="s">
         <v>51</v>
@@ -1626,221 +1634,224 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.1</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>42500</v>
+        <v>42342</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25">
-        <v>425</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>18.399999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2">
-        <v>42352</v>
+        <v>42356</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26">
-        <v>426</v>
+      <c r="E26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>11.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2">
-        <v>42458</v>
+        <v>42475</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27">
-        <v>426</v>
+      <c r="E27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2">
-        <v>42254</v>
+        <v>42395</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F28">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2">
-        <v>42317</v>
+        <v>42389</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F29">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>18.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2">
-        <v>42349</v>
+        <v>42396</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F30">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>14.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2">
-        <v>42363</v>
+        <v>42409</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F31">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>10.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
-        <v>42397</v>
+        <v>42313</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -1849,384 +1860,381 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F32">
-        <v>428</v>
-      </c>
-      <c r="H32" t="s">
-        <v>38</v>
+        <v>448</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>7.8</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2">
-        <v>42436</v>
+        <v>42431</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="F33">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="J33" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>14.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2">
-        <v>42460</v>
+        <v>42275</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>14.9</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2">
-        <v>42341</v>
+        <v>42416</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F35">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>10.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="B36" s="2">
-        <v>42384</v>
+        <v>42479</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F36">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>5.6</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2">
-        <v>42403</v>
+        <v>42508</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="F37">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2">
-        <v>42443</v>
+        <v>42377</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38">
-        <v>430</v>
+        <v>0</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2">
-        <v>42362</v>
+        <v>42419</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39">
-        <v>431</v>
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>10.3</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="B40" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40">
-        <v>435</v>
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>13.1</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
+        <v>92</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42437</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41">
+        <v>424</v>
+      </c>
+      <c r="J41" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="2">
-        <v>42326</v>
-      </c>
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41">
-        <v>435</v>
-      </c>
-      <c r="J41" t="s">
-        <v>32</v>
-      </c>
       <c r="K41">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>16.7</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2">
-        <v>42339</v>
+        <v>42384</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F42">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>10.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2">
-        <v>42348</v>
+        <v>42454</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="F43">
         <v>435</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="K43">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>8.8000000000000007</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2">
-        <v>42401</v>
+        <v>42451</v>
       </c>
       <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44">
+        <v>436</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>11</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44">
-        <v>435</v>
-      </c>
-      <c r="J44" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>4.7</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2">
-        <v>42444</v>
+        <v>42402</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2235,56 +2243,56 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F45">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>8.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2">
-        <v>42454</v>
+        <v>42327</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="F46">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="J46" t="s">
         <v>26</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L46">
-        <v>8.1</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>42496</v>
+        <v>42258</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -2292,20 +2300,20 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47">
-        <v>435</v>
+      <c r="E47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="K47">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>18.100000000000001</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2339,158 +2347,158 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B49" s="2">
-        <v>42410</v>
+        <v>42486</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F49">
-        <v>436</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
+        <v>510</v>
       </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2">
-        <v>42451</v>
+        <v>42391</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50">
-        <v>436</v>
+      <c r="E50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>35</v>
       </c>
       <c r="J50" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>11</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2">
-        <v>42452</v>
+        <v>42405</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51">
-        <v>436</v>
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2">
-        <v>42261</v>
+        <v>42360</v>
       </c>
       <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>11</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52">
-        <v>437</v>
-      </c>
-      <c r="J52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>22.9</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2">
-        <v>42277</v>
+        <v>42354</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F53">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>20.9</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>42375</v>
+        <v>42347</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2499,233 +2507,230 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F54">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="J54" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B55" s="2">
-        <v>42388</v>
+        <v>42345</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F55">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>5.0999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2">
-        <v>42257</v>
+        <v>42472</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F56">
-        <v>439</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
+        <v>549</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="K56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>21.8</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2">
-        <v>42426</v>
+        <v>42403</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>112</v>
       </c>
       <c r="F57">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>5.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2">
-        <v>42432</v>
+        <v>42417</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="F58">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>9.1999999999999993</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B59" s="2">
-        <v>42340</v>
+        <v>42324</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F59">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>9.5</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2">
-        <v>42345</v>
+        <v>42319</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F60">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="J60" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>9.1999999999999993</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2">
-        <v>42381</v>
+        <v>42482</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61">
-        <v>445</v>
+      <c r="E61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
       </c>
       <c r="J61" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2">
-        <v>42402</v>
+        <v>42458</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2734,465 +2739,468 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F62">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="J62" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2">
-        <v>42408</v>
+        <v>42460</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="F63">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J63" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>4.4000000000000004</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="B64" s="2">
-        <v>42418</v>
+        <v>42509</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="F64">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="J64" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>6.2</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2">
-        <v>42425</v>
+        <v>42480</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="F65">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="J65" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="K65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2">
-        <v>42481</v>
+        <v>42447</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
-        <v>156</v>
-      </c>
-      <c r="F66">
-        <v>445</v>
+      <c r="E66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s">
+        <v>35</v>
       </c>
       <c r="J66" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="K66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>16.5</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2">
-        <v>42313</v>
+        <v>42478</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F67">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L67">
-        <v>15.1</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>42327</v>
+        <v>42404</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F68">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="J68" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="K68">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>14.5</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2">
-        <v>42265</v>
+        <v>42418</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="F69">
-        <v>450</v>
-      </c>
-      <c r="H69" t="s">
-        <v>35</v>
+        <v>445</v>
       </c>
       <c r="J69" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="K69">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>20.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>42324</v>
+        <v>42376</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F70">
         <v>450</v>
       </c>
       <c r="J70" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>17.2</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B71" s="2">
-        <v>42325</v>
+        <v>42277</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F71">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="J71" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>18.5</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B72" s="2">
-        <v>42355</v>
+        <v>42338</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F72">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>10.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2">
-        <v>42376</v>
+        <v>42500</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F73">
-        <v>450</v>
+        <v>425</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L73">
-        <v>8.6999999999999993</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B74" s="2">
-        <v>42383</v>
+        <v>42352</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F74">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>6</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B75" s="2">
-        <v>42424</v>
+        <v>42401</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F75">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="J75" t="s">
         <v>84</v>
       </c>
       <c r="K75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B76" s="2">
-        <v>42429</v>
+        <v>42375</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F76">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="J76" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>8.3000000000000007</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2">
-        <v>42431</v>
+        <v>42424</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F77">
         <v>450</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L77">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2">
-        <v>42438</v>
+        <v>42445</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
@@ -3201,16 +3209,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F78">
         <v>450</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="K78">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>8.6999999999999993</v>
@@ -3218,19 +3226,19 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2">
-        <v>42445</v>
+        <v>42492</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F79">
         <v>450</v>
@@ -3242,27 +3250,30 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>8.6999999999999993</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2">
-        <v>42492</v>
+        <v>42510</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F80">
-        <v>450</v>
+        <v>485</v>
+      </c>
+      <c r="H80" t="s">
+        <v>35</v>
       </c>
       <c r="J80" t="s">
         <v>84</v>
@@ -3271,143 +3282,146 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2">
-        <v>42430</v>
+        <v>42515</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="F81">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>5.2</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2">
-        <v>42422</v>
+        <v>42487</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F82">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="K82">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>6.7</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2">
-        <v>42256</v>
+        <v>42439</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F83">
-        <v>456</v>
+        <v>530</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="K83">
-        <v>156.5</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>22.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2">
-        <v>42275</v>
+        <v>42461</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F84">
-        <v>456</v>
+        <v>0</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" t="s">
+        <v>25</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L84">
-        <v>23.3</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B85" s="2">
-        <v>42320</v>
+        <v>42321</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F85">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
@@ -3416,163 +3430,166 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B86" s="2">
-        <v>42415</v>
+        <v>42348</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="F86">
-        <v>456</v>
+        <v>435</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="L86">
-        <v>8.1</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B87" s="2">
-        <v>42263</v>
+        <v>42355</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F87">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="J87" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>21.1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B88" s="2">
-        <v>42312</v>
+        <v>42320</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F88">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B89" s="2">
-        <v>42417</v>
+        <v>42276</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F89">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J89" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
       <c r="L89">
-        <v>6.2</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2">
-        <v>42453</v>
+        <v>42468</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="F90">
-        <v>460</v>
-      </c>
-      <c r="H90" t="s">
-        <v>38</v>
+        <v>539</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>6.3</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B91" s="2">
-        <v>42276</v>
+        <v>42325</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -3580,86 +3597,86 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>44</v>
+      <c r="E91" t="s">
+        <v>62</v>
       </c>
       <c r="F91">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L91">
-        <v>22.7</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B92" s="2">
-        <v>42264</v>
+        <v>42317</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F92">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="J92" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K92">
-        <v>74.5</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>17.899999999999999</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B93" s="2">
-        <v>42457</v>
+        <v>42340</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F93">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="J93" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2">
-        <v>42319</v>
+        <v>42501</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -3668,268 +3685,265 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F94">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="J94" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L94">
-        <v>14.9</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2">
-        <v>42335</v>
+        <v>42465</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="F95">
-        <v>480</v>
+        <v>589</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>9.9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B96" s="2">
-        <v>42338</v>
+        <v>42328</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
-        <v>73</v>
-      </c>
-      <c r="F96">
-        <v>480</v>
+      <c r="E96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s">
+        <v>35</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>10</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2">
-        <v>42416</v>
+        <v>42457</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="F97">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>5.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="B98" s="2">
-        <v>42488</v>
+        <v>42423</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="F98">
-        <v>480</v>
-      </c>
-      <c r="H98" t="s">
-        <v>38</v>
+        <v>420</v>
       </c>
       <c r="J98" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="K98">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>14.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="B99" s="2">
-        <v>42510</v>
+        <v>42261</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>27</v>
       </c>
       <c r="F99">
-        <v>485</v>
-      </c>
-      <c r="H99" t="s">
-        <v>35</v>
+        <v>437</v>
       </c>
       <c r="J99" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
-        <v>17.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2">
-        <v>42514</v>
+        <v>42506</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F100">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="J100" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>23.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
-        <v>42332</v>
+        <v>42471</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F101">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="J101" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>14.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
+        <v>10</v>
+      </c>
+      <c r="B102" s="2">
+        <v>42271</v>
+      </c>
+      <c r="C102" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="2">
-        <v>42318</v>
-      </c>
-      <c r="C102" t="s">
-        <v>14</v>
-      </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F102">
-        <v>487</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
+        <v>420</v>
+      </c>
+      <c r="H102" t="s">
+        <v>38</v>
       </c>
       <c r="J102" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K102">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>16.5</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B103" s="2">
-        <v>42387</v>
+        <v>42422</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -3938,117 +3952,117 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F103">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="J103" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="K103">
-        <v>67</v>
+        <v>1.5</v>
       </c>
       <c r="L103">
-        <v>2.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B104" s="2">
-        <v>42333</v>
+        <v>42362</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F104">
-        <v>490</v>
+        <v>431</v>
+      </c>
+      <c r="H104" t="s">
+        <v>38</v>
       </c>
       <c r="J104" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="K104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L104">
-        <v>8.6999999999999993</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="B105" s="2">
-        <v>42509</v>
+        <v>42326</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="F105">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="J105" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L105">
-        <v>19.3</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
+        <v>7</v>
+      </c>
+      <c r="B106" s="2">
+        <v>42263</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
         <v>31</v>
       </c>
-      <c r="B106" s="2">
-        <v>42334</v>
-      </c>
-      <c r="C106" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106" t="s">
-        <v>70</v>
-      </c>
       <c r="F106">
-        <v>495</v>
-      </c>
-      <c r="H106" t="s">
-        <v>38</v>
+        <v>460</v>
       </c>
       <c r="J106" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K106">
-        <v>20.5</v>
+        <v>4</v>
       </c>
       <c r="L106">
-        <v>8.6999999999999993</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="B107" s="2">
-        <v>42479</v>
+        <v>42346</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4057,27 +4071,27 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F107">
-        <v>495</v>
+        <v>420</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
-        <v>16.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B108" s="2">
-        <v>42478</v>
+        <v>42408</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -4086,349 +4100,346 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F108">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="J108" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="K108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>18.899999999999999</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B109" s="2">
-        <v>42485</v>
+        <v>42425</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="F109">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="J109" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L109">
-        <v>18.100000000000001</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2">
-        <v>42506</v>
+        <v>42499</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="F110">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="J110" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L110">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2">
-        <v>42513</v>
+        <v>42496</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F111">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="J111" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
-        <v>23.5</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="B112" s="2">
-        <v>42515</v>
+        <v>42415</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="F112">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="J112" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L112">
-        <v>22.2</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="B113" s="2">
-        <v>42480</v>
+        <v>42353</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="F113">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="J113" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>14.9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="B114" s="2">
-        <v>42486</v>
+        <v>42359</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F114">
-        <v>510</v>
+        <v>423</v>
       </c>
       <c r="J114" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K114">
         <v>0</v>
       </c>
       <c r="L114">
-        <v>19.2</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2">
-        <v>42501</v>
+        <v>42452</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F115">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="K115">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>21.4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="B116" s="2">
-        <v>42487</v>
+        <v>42341</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F116">
-        <v>515</v>
+        <v>430</v>
       </c>
       <c r="J116" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
-        <v>18.100000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2">
-        <v>42507</v>
+        <v>42481</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F117">
-        <v>515</v>
-      </c>
-      <c r="G117" t="s">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="J117" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="K117">
-        <v>31.5</v>
+        <v>6</v>
       </c>
       <c r="L117">
-        <v>18.3</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B118" s="2">
-        <v>42508</v>
+        <v>42429</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="F118">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L118">
-        <v>20</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="B119" s="2">
-        <v>42502</v>
+        <v>42333</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F119">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L119">
-        <v>21.7</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2">
-        <v>42439</v>
+        <v>42453</v>
       </c>
       <c r="C120" t="s">
         <v>20</v>
@@ -4437,315 +4448,312 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="F120">
-        <v>530</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
+        <v>460</v>
+      </c>
+      <c r="H120" t="s">
+        <v>38</v>
       </c>
       <c r="J120" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L120">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2">
-        <v>42467</v>
+        <v>42459</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F121">
-        <v>532</v>
+        <v>415</v>
       </c>
       <c r="J121" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K121">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>13.8</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2">
-        <v>42464</v>
+        <v>42514</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F122">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="J122" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="K122">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>15.6</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>42468</v>
+        <v>42485</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="F123">
-        <v>539</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>16.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2">
-        <v>42471</v>
+        <v>42466</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="F124">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="J124" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="K124">
         <v>0</v>
       </c>
       <c r="L124">
-        <v>11.6</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B125" s="2">
-        <v>42472</v>
+        <v>42513</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F125">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="J125" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>10.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="B126" s="2">
-        <v>42474</v>
+        <v>42363</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="F126">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="J126" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K126">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>15</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B127" s="2">
-        <v>42466</v>
+        <v>42332</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="F127">
-        <v>559</v>
+        <v>486</v>
       </c>
       <c r="J127" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B128" s="2">
-        <v>42473</v>
+        <v>42262</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="F128">
-        <v>564</v>
+        <v>421</v>
       </c>
       <c r="J128" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K128">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>14.4</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B129" s="2">
-        <v>42465</v>
+        <v>42390</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="F129">
-        <v>589</v>
+        <v>425</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B130" s="2">
-        <v>42258</v>
+        <v>42443</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>132</v>
+      </c>
+      <c r="F130">
+        <v>430</v>
       </c>
       <c r="J130" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L130">
-        <v>23.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4779,100 +4787,100 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B132" s="2">
-        <v>42314</v>
+        <v>42381</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G132" t="s">
-        <v>25</v>
+      <c r="E132" t="s">
+        <v>96</v>
+      </c>
+      <c r="F132">
+        <v>445</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
       <c r="L132">
-        <v>16.399999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B133" s="2">
-        <v>42328</v>
+        <v>42257</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
-      <c r="H133" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133">
+        <v>439</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L133">
-        <v>13.7</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B134" s="2">
-        <v>42342</v>
+        <v>42438</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+      <c r="F134">
+        <v>450</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="L134">
-        <v>9.9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B135" s="2">
-        <v>42356</v>
+        <v>42398</v>
       </c>
       <c r="C135" t="s">
         <v>23</v>
@@ -4881,120 +4889,114 @@
         <v>0</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G135" t="s">
-        <v>25</v>
-      </c>
-      <c r="H135" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L135">
-        <v>7.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2">
-        <v>42377</v>
+        <v>42488</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
+      <c r="E136" t="s">
+        <v>158</v>
+      </c>
+      <c r="F136">
+        <v>480</v>
+      </c>
+      <c r="H136" t="s">
+        <v>38</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L136">
-        <v>6.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B137" s="2">
-        <v>42391</v>
+        <v>42440</v>
       </c>
       <c r="C137" t="s">
         <v>23</v>
       </c>
       <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G137" t="s">
-        <v>25</v>
-      </c>
-      <c r="H137" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>131</v>
+      </c>
+      <c r="F137">
+        <v>425</v>
       </c>
       <c r="J137" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="K137">
         <v>0</v>
       </c>
       <c r="L137">
-        <v>5.8</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B138" s="2">
-        <v>42398</v>
+        <v>42436</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>127</v>
+      </c>
+      <c r="F138">
+        <v>428</v>
       </c>
       <c r="J138" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="K138">
-        <v>9.5</v>
+        <v>31.5</v>
       </c>
       <c r="L138">
-        <v>5.4</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B139" s="2">
-        <v>42405</v>
+        <v>42265</v>
       </c>
       <c r="C139" t="s">
         <v>23</v>
@@ -5002,209 +5004,209 @@
       <c r="D139">
         <v>0</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G139" t="s">
-        <v>25</v>
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139">
+        <v>450</v>
+      </c>
+      <c r="H139" t="s">
+        <v>35</v>
       </c>
       <c r="J139" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L139">
-        <v>7.5</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B140" s="2">
-        <v>42419</v>
+        <v>42334</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>70</v>
+      </c>
+      <c r="F140">
+        <v>495</v>
       </c>
       <c r="H140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="L140">
-        <v>9.6999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2">
-        <v>42447</v>
+        <v>42464</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
-      <c r="H141" t="s">
-        <v>35</v>
+      <c r="E141" t="s">
+        <v>145</v>
+      </c>
+      <c r="F141">
+        <v>539</v>
       </c>
       <c r="J141" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L141">
-        <v>14.8</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B142" s="2">
-        <v>42461</v>
+        <v>42474</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
+      <c r="E142" t="s">
+        <v>153</v>
+      </c>
+      <c r="F142">
+        <v>554</v>
       </c>
       <c r="J142" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="L142">
-        <v>12.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B143" s="2">
-        <v>42475</v>
+        <v>42254</v>
       </c>
       <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143">
+        <v>428</v>
+      </c>
+      <c r="J143" t="s">
+        <v>13</v>
+      </c>
+      <c r="K143">
+        <v>19</v>
+      </c>
+      <c r="L143">
         <v>23</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G143" t="s">
-        <v>25</v>
-      </c>
-      <c r="H143" t="s">
-        <v>35</v>
-      </c>
-      <c r="J143" t="s">
-        <v>51</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>16.3</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="B144" s="2">
-        <v>42482</v>
+        <v>42318</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G144" t="s">
-        <v>25</v>
+      <c r="E144" t="s">
+        <v>56</v>
+      </c>
+      <c r="F144">
+        <v>487</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L144">
-        <v>17.3</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2">
-        <v>42503</v>
+        <v>42473</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
+      <c r="E145" t="s">
+        <v>152</v>
+      </c>
+      <c r="F145">
+        <v>564</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L145">
-        <v>21.2</v>
+        <v>14.4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L145" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L145">
-      <sortCondition ref="F1:F145"/>
+      <sortCondition ref="J1:J145"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
